--- a/Assets/Excel/Effort.xlsx
+++ b/Assets/Excel/Effort.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>//dontCare</t>
   </si>
@@ -46,13 +46,25 @@
     <t>Tiger Mother</t>
   </si>
   <si>
+    <t>Improve learning efficiency.</t>
+  </si>
+  <si>
     <t>Early Bird</t>
   </si>
   <si>
+    <t>Nowborn children can go to school.</t>
+  </si>
+  <si>
     <t>Magic Belly</t>
   </si>
   <si>
+    <t>Can give birth to twins.</t>
+  </si>
+  <si>
     <t>Working Student</t>
+  </si>
+  <si>
+    <t>Can gain working experience in school after {0} years old.</t>
   </si>
 </sst>
 </file>
@@ -1026,13 +1038,14 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="6" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="12.4545454545455" customWidth="1"/>
     <col min="2" max="2" width="17.1818181818182" customWidth="1"/>
+    <col min="3" max="3" width="72.7272727272727" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -1081,8 +1094,8 @@
       <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="C4">
-        <v>111</v>
+      <c r="C4" t="s">
+        <v>10</v>
       </c>
       <c r="D4" s="1">
         <v>2</v>
@@ -1096,10 +1109,10 @@
         <v>1002</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5">
-        <v>111</v>
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
       </c>
       <c r="D5" s="1">
         <v>0</v>
@@ -1113,10 +1126,10 @@
         <v>1003</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6">
-        <v>11</v>
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
       </c>
       <c r="D6" s="1">
         <v>20</v>
@@ -1130,16 +1143,16 @@
         <v>1004</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7">
-        <v>11</v>
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
       </c>
       <c r="D7" s="1">
+        <v>16</v>
+      </c>
+      <c r="E7" s="1">
         <v>1</v>
-      </c>
-      <c r="E7" s="1">
-        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel/Effort.xlsx
+++ b/Assets/Excel/Effort.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>//dontCare</t>
   </si>
@@ -65,6 +65,12 @@
   </si>
   <si>
     <t>Can gain working experience in school after {0} years old.</t>
+  </si>
+  <si>
+    <t>Bribe</t>
+  </si>
+  <si>
+    <t>Reduce marriage requirements temporarily</t>
   </si>
 </sst>
 </file>
@@ -1035,13 +1041,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="6" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="7" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="12.4545454545455" customWidth="1"/>
     <col min="2" max="2" width="17.1818181818182" customWidth="1"/>
@@ -1155,6 +1161,23 @@
         <v>1</v>
       </c>
     </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>9999</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Assets/Excel/Effort.xlsx
+++ b/Assets/Excel/Effort.xlsx
@@ -1044,7 +1044,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="7" outlineLevelCol="4"/>
@@ -1104,7 +1104,7 @@
         <v>10</v>
       </c>
       <c r="D4" s="1">
-        <v>2</v>
+        <v>1.1</v>
       </c>
       <c r="E4" s="1">
         <v>0</v>

--- a/Assets/Excel/Effort.xlsx
+++ b/Assets/Excel/Effort.xlsx
@@ -1104,7 +1104,7 @@
         <v>10</v>
       </c>
       <c r="D4" s="1">
-        <v>1.1</v>
+        <v>0.65</v>
       </c>
       <c r="E4" s="1">
         <v>0</v>

--- a/Assets/Excel/Effort.xlsx
+++ b/Assets/Excel/Effort.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17400" windowHeight="8330"/>
+    <workbookView windowWidth="14390" windowHeight="10570"/>
   </bookViews>
   <sheets>
     <sheet name="Effort" sheetId="1" r:id="rId1"/>
@@ -1044,7 +1044,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="7" outlineLevelCol="4"/>
@@ -1106,9 +1106,7 @@
       <c r="D4" s="1">
         <v>0.65</v>
       </c>
-      <c r="E4" s="1">
-        <v>0</v>
-      </c>
+      <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
@@ -1123,9 +1121,7 @@
       <c r="D5" s="1">
         <v>0</v>
       </c>
-      <c r="E5" s="1">
-        <v>0</v>
-      </c>
+      <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
@@ -1140,9 +1136,7 @@
       <c r="D6" s="1">
         <v>20</v>
       </c>
-      <c r="E6" s="1">
-        <v>0</v>
-      </c>
+      <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5">
       <c r="A7">

--- a/Assets/Excel/Effort.xlsx
+++ b/Assets/Excel/Effort.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14390" windowHeight="10570"/>
+    <workbookView windowWidth="19920" windowHeight="10570"/>
   </bookViews>
   <sheets>
     <sheet name="Effort" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
   <si>
     <t>//dontCare</t>
   </si>
@@ -65,6 +65,24 @@
   </si>
   <si>
     <t>Can gain working experience in school after {0} years old.</t>
+  </si>
+  <si>
+    <t>Family Business</t>
+  </si>
+  <si>
+    <t>Can do all jobs after {0} years old.</t>
+  </si>
+  <si>
+    <t>Fetal Education</t>
+  </si>
+  <si>
+    <t>Nowborn children get initial Education.</t>
+  </si>
+  <si>
+    <t>Network</t>
+  </si>
+  <si>
+    <t>Reduce educational requirement of all job.</t>
   </si>
   <si>
     <t>Bribe</t>
@@ -1041,13 +1059,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="7" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="12.4545454545455" customWidth="1"/>
     <col min="2" max="2" width="17.1818181818182" customWidth="1"/>
@@ -1157,7 +1175,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>9999</v>
+        <v>1005</v>
       </c>
       <c r="B8" t="s">
         <v>17</v>
@@ -1165,10 +1183,55 @@
       <c r="C8" t="s">
         <v>18</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="1">
+        <v>20</v>
+      </c>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <v>1006</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="1">
+        <v>10</v>
+      </c>
+      <c r="E9" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10">
+        <v>1007</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11">
+        <v>9999</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11">
         <v>1</v>
       </c>
-      <c r="E8">
+      <c r="E11">
         <v>6</v>
       </c>
     </row>

--- a/Assets/Excel/Effort.xlsx
+++ b/Assets/Excel/Effort.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19920" windowHeight="10570"/>
+    <workbookView windowWidth="21510" windowHeight="10570"/>
   </bookViews>
   <sheets>
     <sheet name="Effort" sheetId="1" r:id="rId1"/>
@@ -67,7 +67,7 @@
     <t>Can gain working experience in school after {0} years old.</t>
   </si>
   <si>
-    <t>Family Business</t>
+    <t>Internship King</t>
   </si>
   <si>
     <t>Can do all jobs after {0} years old.</t>
@@ -1062,7 +1062,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
@@ -1152,9 +1152,11 @@
         <v>14</v>
       </c>
       <c r="D6" s="1">
-        <v>20</v>
-      </c>
-      <c r="E6" s="1"/>
+        <v>30</v>
+      </c>
+      <c r="E6" s="1">
+        <v>10</v>
+      </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7">

--- a/Assets/Excel/Effort.xlsx
+++ b/Assets/Excel/Effort.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21510" windowHeight="10570"/>
+    <workbookView windowWidth="25600" windowHeight="12210"/>
   </bookViews>
   <sheets>
     <sheet name="Effort" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
   <si>
     <t>//dontCare</t>
   </si>
@@ -34,6 +34,9 @@
     <t>value1</t>
   </si>
   <si>
+    <t>remark</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
@@ -49,24 +52,36 @@
     <t>Improve learning efficiency.</t>
   </si>
   <si>
+    <t>Edu+15.4/19.6</t>
+  </si>
+  <si>
     <t>Early Bird</t>
   </si>
   <si>
     <t>Nowborn children can go to school.</t>
   </si>
   <si>
+    <t>Edu+19/Score</t>
+  </si>
+  <si>
     <t>Magic Belly</t>
   </si>
   <si>
     <t>Can give birth to twins.</t>
   </si>
   <si>
+    <t>Survival</t>
+  </si>
+  <si>
     <t>Working Student</t>
   </si>
   <si>
     <t>Can gain working experience in school after {0} years old.</t>
   </si>
   <si>
+    <t>Career</t>
+  </si>
+  <si>
     <t>Internship King</t>
   </si>
   <si>
@@ -77,6 +92,9 @@
   </si>
   <si>
     <t>Nowborn children get initial Education.</t>
+  </si>
+  <si>
+    <t>EduUp17.5</t>
   </si>
   <si>
     <t>Network</t>
@@ -1059,17 +1077,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="12.4545454545455" customWidth="1"/>
     <col min="2" max="2" width="17.1818181818182" customWidth="1"/>
-    <col min="3" max="3" width="72.7272727272727" customWidth="1"/>
+    <col min="3" max="3" width="60.1818181818182" customWidth="1"/>
+    <col min="6" max="6" width="15.6363636363636" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -1077,7 +1096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1093,63 +1112,75 @@
       <c r="E2" t="s">
         <v>5</v>
       </c>
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s">
         <v>8</v>
       </c>
-      <c r="E3" t="s">
-        <v>8</v>
-      </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>1001</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D4" s="1">
-        <v>0.65</v>
+        <v>0.7</v>
       </c>
       <c r="E4" s="1"/>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>1002</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D5" s="1">
         <v>0</v>
       </c>
       <c r="E5" s="1"/>
+      <c r="F5" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>1003</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D6" s="1">
         <v>30</v>
@@ -1157,22 +1188,28 @@
       <c r="E6" s="1">
         <v>10</v>
       </c>
+      <c r="F6" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>1004</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D7" s="1">
         <v>16</v>
       </c>
       <c r="E7" s="1">
         <v>1</v>
+      </c>
+      <c r="F7" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1180,31 +1217,34 @@
         <v>1005</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D8" s="1">
         <v>20</v>
       </c>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>1006</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D9" s="1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E9" s="1">
         <v>20</v>
+      </c>
+      <c r="F9" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1212,10 +1252,10 @@
         <v>1007</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -1225,10 +1265,10 @@
         <v>9999</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D11">
         <v>1</v>

--- a/Assets/Excel/Effort.xlsx
+++ b/Assets/Excel/Effort.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="41">
   <si>
     <t>//dontCare</t>
   </si>
@@ -34,6 +34,9 @@
     <t>value1</t>
   </si>
   <si>
+    <t>affect</t>
+  </si>
+  <si>
     <t>remark</t>
   </si>
   <si>
@@ -46,6 +49,9 @@
     <t>float</t>
   </si>
   <si>
+    <t>int[]</t>
+  </si>
+  <si>
     <t>Tiger Mother</t>
   </si>
   <si>
@@ -79,7 +85,7 @@
     <t>Can gain working experience in school after {0} years old.</t>
   </si>
   <si>
-    <t>Career</t>
+    <t>Career+12</t>
   </si>
   <si>
     <t>Internship King</t>
@@ -88,13 +94,19 @@
     <t>Can do all jobs after {0} years old.</t>
   </si>
   <si>
+    <t>2002;2003</t>
+  </si>
+  <si>
+    <t>Career+18/27(SacrificeEdu)</t>
+  </si>
+  <si>
     <t>Fetal Education</t>
   </si>
   <si>
     <t>Nowborn children get initial Education.</t>
   </si>
   <si>
-    <t>EduUp17.5</t>
+    <t>Edu+15</t>
   </si>
   <si>
     <t>Network</t>
@@ -103,10 +115,28 @@
     <t>Reduce educational requirement of all job.</t>
   </si>
   <si>
+    <t>Career+(15-20)</t>
+  </si>
+  <si>
+    <t>Supervision</t>
+  </si>
+  <si>
+    <t>Improve working efficiency.</t>
+  </si>
+  <si>
+    <t>2001;2002;2003</t>
+  </si>
+  <si>
+    <t>Career+22/7/12</t>
+  </si>
+  <si>
     <t>Bribe</t>
   </si>
   <si>
     <t>Reduce marriage requirements temporarily</t>
+  </si>
+  <si>
+    <t>3001;3002</t>
   </si>
 </sst>
 </file>
@@ -1077,18 +1107,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="12.4545454545455" customWidth="1"/>
     <col min="2" max="2" width="17.1818181818182" customWidth="1"/>
     <col min="3" max="3" width="60.1818181818182" customWidth="1"/>
-    <col min="6" max="6" width="15.6363636363636" customWidth="1"/>
+    <col min="6" max="6" width="18" customWidth="1"/>
+    <col min="7" max="7" width="26.6363636363636" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -1096,7 +1127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1115,72 +1146,84 @@
       <c r="F2" t="s">
         <v>6</v>
       </c>
+      <c r="G2" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" t="s">
         <v>9</v>
       </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" t="s">
-        <v>8</v>
-      </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:7">
       <c r="A4" s="1">
         <v>1001</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D4" s="1">
         <v>0.7</v>
       </c>
       <c r="E4" s="1"/>
-      <c r="F4" t="s">
-        <v>12</v>
+      <c r="F4" s="1">
+        <v>1001</v>
+      </c>
+      <c r="G4" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>1002</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D5" s="1">
         <v>0</v>
       </c>
       <c r="E5" s="1"/>
-      <c r="F5" t="s">
-        <v>15</v>
+      <c r="F5" s="1">
+        <v>1001</v>
+      </c>
+      <c r="G5" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>1003</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D6" s="1">
         <v>30</v>
@@ -1188,19 +1231,22 @@
       <c r="E6" s="1">
         <v>10</v>
       </c>
-      <c r="F6" t="s">
-        <v>18</v>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>1004</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D7" s="1">
         <v>16</v>
@@ -1208,73 +1254,115 @@
       <c r="E7" s="1">
         <v>1</v>
       </c>
-      <c r="F7" t="s">
-        <v>21</v>
+      <c r="F7" s="1">
+        <v>1001</v>
+      </c>
+      <c r="G7" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>1005</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D8" s="1">
         <v>20</v>
       </c>
       <c r="E8" s="1"/>
+      <c r="F8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>1006</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D9" s="1">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E9" s="1">
         <v>20</v>
       </c>
-      <c r="F9" t="s">
-        <v>26</v>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+      <c r="G9" t="s">
+        <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:7">
       <c r="A10">
         <v>1007</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
+      <c r="F10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:7">
       <c r="A11">
+        <v>1008</v>
+      </c>
+      <c r="B11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12">
         <v>9999</v>
       </c>
-      <c r="B11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11">
+      <c r="B12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12">
         <v>1</v>
       </c>
-      <c r="E11">
+      <c r="E12">
         <v>6</v>
+      </c>
+      <c r="F12" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel/Effort.xlsx
+++ b/Assets/Excel/Effort.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="44">
   <si>
     <t>//dontCare</t>
   </si>
@@ -64,7 +64,7 @@
     <t>Early Bird</t>
   </si>
   <si>
-    <t>Nowborn children can go to school.</t>
+    <t>Nowborn baby can go to school.</t>
   </si>
   <si>
     <t>Edu+19/Score</t>
@@ -82,7 +82,7 @@
     <t>Working Student</t>
   </si>
   <si>
-    <t>Can gain working experience in school after {0} years old.</t>
+    <t>Can gain work experience in school after {0} years old.</t>
   </si>
   <si>
     <t>Career+12</t>
@@ -103,7 +103,7 @@
     <t>Fetal Education</t>
   </si>
   <si>
-    <t>Nowborn children get initial Education.</t>
+    <t>Nowborn baby get initial Education.</t>
   </si>
   <si>
     <t>Edu+15</t>
@@ -128,6 +128,15 @@
   </si>
   <si>
     <t>Career+22/7/12</t>
+  </si>
+  <si>
+    <t>No End To Learn</t>
+  </si>
+  <si>
+    <t>Keep studying when working.</t>
+  </si>
+  <si>
+    <t>Edu+12.8/Score</t>
   </si>
   <si>
     <t>Bribe</t>
@@ -1107,17 +1116,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="12.4545454545455" customWidth="1"/>
-    <col min="2" max="2" width="17.1818181818182" customWidth="1"/>
-    <col min="3" max="3" width="60.1818181818182" customWidth="1"/>
+    <col min="2" max="2" width="16.0909090909091" customWidth="1"/>
+    <col min="3" max="3" width="57.5454545454545" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
     <col min="7" max="7" width="26.6363636363636" customWidth="1"/>
   </cols>
@@ -1345,9 +1354,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:7">
       <c r="A12">
-        <v>9999</v>
+        <v>1009</v>
       </c>
       <c r="B12" t="s">
         <v>38</v>
@@ -1355,14 +1364,35 @@
       <c r="C12" t="s">
         <v>39</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13">
+        <v>9999</v>
+      </c>
+      <c r="B13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13">
         <v>1</v>
       </c>
-      <c r="E12">
+      <c r="E13">
         <v>6</v>
       </c>
-      <c r="F12" t="s">
-        <v>40</v>
+      <c r="F13" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel/Effort.xlsx
+++ b/Assets/Excel/Effort.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="12210"/>
+    <workbookView windowWidth="12600" windowHeight="11430"/>
   </bookViews>
   <sheets>
     <sheet name="Effort" sheetId="1" r:id="rId1"/>
@@ -1119,7 +1119,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
@@ -1281,7 +1281,7 @@
         <v>25</v>
       </c>
       <c r="D8" s="1">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1" t="s">

--- a/Assets/Excel/Effort.xlsx
+++ b/Assets/Excel/Effort.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="12600" windowHeight="11430"/>
+    <workbookView windowWidth="19350" windowHeight="11460"/>
   </bookViews>
   <sheets>
     <sheet name="Effort" sheetId="1" r:id="rId1"/>
@@ -136,7 +136,7 @@
     <t>Keep studying when working.</t>
   </si>
   <si>
-    <t>Edu+12.8/Score</t>
+    <t>Edu+9.6/Score</t>
   </si>
   <si>
     <t>Bribe</t>
@@ -1119,7 +1119,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
@@ -1365,7 +1365,7 @@
         <v>39</v>
       </c>
       <c r="D12" s="1">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1" t="s">

--- a/Assets/Excel/Effort.xlsx
+++ b/Assets/Excel/Effort.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19350" windowHeight="11460"/>
+    <workbookView windowWidth="14730" windowHeight="10590"/>
   </bookViews>
   <sheets>
     <sheet name="Effort" sheetId="1" r:id="rId1"/>
@@ -64,7 +64,7 @@
     <t>Early Bird</t>
   </si>
   <si>
-    <t>Nowborn baby can go to school.</t>
+    <t>A newborn baby can go to school.</t>
   </si>
   <si>
     <t>Edu+19/Score</t>
@@ -82,7 +82,7 @@
     <t>Working Student</t>
   </si>
   <si>
-    <t>Can gain work experience in school after {0} years old.</t>
+    <t>Can gain work experience in school after the age of {0}.</t>
   </si>
   <si>
     <t>Career+12</t>
@@ -91,7 +91,7 @@
     <t>Internship King</t>
   </si>
   <si>
-    <t>Can do all jobs after {0} years old.</t>
+    <t>Can do all jobs after the age of {0}.</t>
   </si>
   <si>
     <t>2002;2003</t>
@@ -103,7 +103,7 @@
     <t>Fetal Education</t>
   </si>
   <si>
-    <t>Nowborn baby get initial Education.</t>
+    <t>A newborn baby gets initial Education.</t>
   </si>
   <si>
     <t>Edu+15</t>
@@ -112,7 +112,7 @@
     <t>Network</t>
   </si>
   <si>
-    <t>Reduce educational requirement of all job.</t>
+    <t>Reduce educational requirements of all jobs.</t>
   </si>
   <si>
     <t>Career+(15-20)</t>
@@ -142,7 +142,7 @@
     <t>Bribe</t>
   </si>
   <si>
-    <t>Reduce marriage requirements temporarily</t>
+    <t>Reduce marriage requirements temporarily.</t>
   </si>
   <si>
     <t>3001;3002</t>
@@ -1119,7 +1119,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
